--- a/HARDWARE/PowerLog.xlsx
+++ b/HARDWARE/PowerLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\HUST_GraduateProject\HARDWARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{056E00BD-B0BD-4EDF-B613-A6DC76DA936B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807BFC7A-712A-4752-996E-DD1D459A98BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{0F8B2C5E-235B-404F-BC6A-71BC65303A56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{0F8B2C5E-235B-404F-BC6A-71BC65303A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,12 +69,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -143,57 +152,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Trang_tính1!$A$3:$BT$3</c:f>
+              <c:f>Trang_tính1!$B$3:$BN$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>65</c:v>
@@ -202,7 +211,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>64</c:v>
@@ -211,22 +220,22 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>65</c:v>
@@ -235,52 +244,52 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>65</c:v>
@@ -289,16 +298,16 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>64</c:v>
@@ -307,60 +316,39 @@
                   <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>65</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>64</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>45</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>39</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>46</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>55</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>35</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>19</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -392,7 +380,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dPt>
-            <c:idx val="21"/>
+            <c:idx val="20"/>
             <c:marker>
               <c:symbol val="none"/>
             </c:marker>
@@ -406,233 +394,207 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-14D8-4B42-8F5D-C90323A38538}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Trang_tính1!$A$4:$BT$4</c:f>
+              <c:f>Trang_tính1!$B$4:$BN$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>51.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>51.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>51.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>51.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>51.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>51.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>51.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>51.972000000000001</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,7 +651,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t> GIAN TÍNH (TÍNH TỪ LÚC THIẾT BỊ THỨC DẬY) (100ms)</a:t>
+                  <a:t> GIAN (TÍNH TỪ LÚC THIẾT BỊ THỨC DẬY) (100ms)</a:t>
                 </a:r>
                 <a:endParaRPr lang="vi-VN" sz="1800"/>
               </a:p>
@@ -816,14 +778,23 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>DÒNG</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                  <a:t> ĐIỆN TIÊU THỊ (mA)</a:t>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> ĐIỆN TIÊU THỤ (mA)</a:t>
                 </a:r>
-                <a:endParaRPr lang="vi-VN" sz="1800"/>
+                <a:endParaRPr lang="vi-VN" sz="1800">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1571,12 +1542,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.90178</cdr:x>
-      <cdr:y>0.28482</cdr:y>
+      <cdr:x>0.901</cdr:x>
+      <cdr:y>0.21388</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99335</cdr:x>
-      <cdr:y>0.37533</cdr:y>
+      <cdr:x>0.99257</cdr:x>
+      <cdr:y>0.30439</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1591,8 +1562,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="15740743" y="2021346"/>
-          <a:ext cx="1598476" cy="642264"/>
+          <a:off x="15727183" y="1517849"/>
+          <a:ext cx="1598377" cy="642332"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1608,7 +1579,7 @@
               <a:latin typeface="+mn-lt"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>52 mA</a:t>
+            <a:t>57 mA</a:t>
           </a:r>
           <a:endParaRPr lang="vi-VN" sz="2800" b="1">
             <a:latin typeface="+mn-lt"/>
@@ -1918,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4D020A-E36E-4633-8386-870DA2C89387}">
-  <dimension ref="A3:BT85"/>
+  <dimension ref="A2:BT85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1931,6 +1902,16 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <f>AVERAGE(B3:BN3)</f>
+        <v>57.569230769230771</v>
+      </c>
+      <c r="B2" s="3">
+        <f>A2*7.8*6.3/180</f>
+        <v>15.716400000000002</v>
+      </c>
+    </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
@@ -2151,220 +2132,220 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="H4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="L4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="M4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="O4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="P4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="R4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="S4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="T4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="U4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="V4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="W4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="X4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="Z4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AA4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AC4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AE4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AG4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AH4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AI4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AJ4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AK4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AL4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AM4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AN4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AO4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AP4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AQ4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AR4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AS4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AT4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AU4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AV4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AW4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AX4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AY4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="AZ4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BA4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BB4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BC4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BD4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BE4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BF4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BG4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BH4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BI4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BJ4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BK4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BL4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BM4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BN4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BO4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BP4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BQ4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BR4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BS4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
       <c r="BT4" s="1">
-        <v>51.972000000000001</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.2">
